--- a/Devoir 3/project-files/Echeancier.xlsx
+++ b/Devoir 3/project-files/Echeancier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karimhozaien/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deanm/Documents/GitHub/IFT2255-Groupe-18/Devoir 3/project-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADAE909-4BAA-CB4A-8EDC-033F401781BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BA1454-4C03-434D-B92F-B4307AE08FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>IFT 2255 TP1: Groupe 18</t>
   </si>
@@ -187,19 +187,27 @@
     <t xml:space="preserve">Mathias </t>
   </si>
   <si>
-    <t>`</t>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>Debogage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="168" formatCode="m\/d\/yy;@"/>
+    <numFmt numFmtId="169" formatCode="mm\/dd\/yy;@"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -809,7 +817,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -936,9 +944,6 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -951,9 +956,6 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -981,9 +983,6 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1119,12 +1118,6 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1132,21 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="3" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="3" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1175,6 +1183,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="5" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1196,10 +1207,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1211,12 +1224,10 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1250,6 +1261,23 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1265,7 +1293,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -1311,9 +1339,19 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -1328,39 +1366,12 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1852,8 +1863,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="92" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BP3" sqref="BP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1871,7 +1882,7 @@
   <sheetData>
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="14"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18"/>
@@ -1904,8 +1915,8 @@
       <c r="Z1" s="124"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
@@ -1919,7 +1930,9 @@
       <c r="N2" s="127"/>
       <c r="O2" s="127"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="123"/>
+      <c r="Q2" s="123">
+        <v>7</v>
+      </c>
       <c r="R2" s="124"/>
       <c r="S2" s="124"/>
       <c r="T2" s="124"/>
@@ -1944,7 +1957,7 @@
       <c r="E4" s="30"/>
       <c r="I4" s="120">
         <f>I5</f>
-        <v>45544</v>
+        <v>45593</v>
       </c>
       <c r="J4" s="118"/>
       <c r="K4" s="118"/>
@@ -1954,7 +1967,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118">
         <f>P5</f>
-        <v>45551</v>
+        <v>45600</v>
       </c>
       <c r="Q4" s="118"/>
       <c r="R4" s="118"/>
@@ -1964,7 +1977,7 @@
       <c r="V4" s="118"/>
       <c r="W4" s="118">
         <f>W5</f>
-        <v>45558</v>
+        <v>45607</v>
       </c>
       <c r="X4" s="118"/>
       <c r="Y4" s="118"/>
@@ -1974,7 +1987,7 @@
       <c r="AC4" s="118"/>
       <c r="AD4" s="118">
         <f>AD5</f>
-        <v>45565</v>
+        <v>45614</v>
       </c>
       <c r="AE4" s="118"/>
       <c r="AF4" s="118"/>
@@ -1984,7 +1997,7 @@
       <c r="AJ4" s="118"/>
       <c r="AK4" s="118">
         <f>AK5</f>
-        <v>45572</v>
+        <v>45621</v>
       </c>
       <c r="AL4" s="118"/>
       <c r="AM4" s="118"/>
@@ -1994,7 +2007,7 @@
       <c r="AQ4" s="118"/>
       <c r="AR4" s="118">
         <f>AR5</f>
-        <v>45579</v>
+        <v>45628</v>
       </c>
       <c r="AS4" s="118"/>
       <c r="AT4" s="118"/>
@@ -2004,7 +2017,7 @@
       <c r="AX4" s="118"/>
       <c r="AY4" s="118">
         <f>AY5</f>
-        <v>45586</v>
+        <v>45635</v>
       </c>
       <c r="AZ4" s="118"/>
       <c r="BA4" s="118"/>
@@ -2014,7 +2027,7 @@
       <c r="BE4" s="118"/>
       <c r="BF4" s="118">
         <f>BF5</f>
-        <v>45593</v>
+        <v>45642</v>
       </c>
       <c r="BG4" s="118"/>
       <c r="BH4" s="118"/>
@@ -2042,227 +2055,227 @@
       </c>
       <c r="I5" s="31">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45544</v>
+        <v>45593</v>
       </c>
       <c r="J5" s="31">
         <f>I5+1</f>
-        <v>45545</v>
+        <v>45594</v>
       </c>
       <c r="K5" s="31">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>45546</v>
+        <v>45595</v>
       </c>
       <c r="L5" s="31">
         <f t="shared" si="0"/>
-        <v>45547</v>
+        <v>45596</v>
       </c>
       <c r="M5" s="31">
         <f t="shared" si="0"/>
-        <v>45548</v>
+        <v>45597</v>
       </c>
       <c r="N5" s="31">
         <f t="shared" si="0"/>
-        <v>45549</v>
+        <v>45598</v>
       </c>
       <c r="O5" s="32">
         <f t="shared" si="0"/>
-        <v>45550</v>
+        <v>45599</v>
       </c>
       <c r="P5" s="33">
         <f>O5+1</f>
-        <v>45551</v>
+        <v>45600</v>
       </c>
       <c r="Q5" s="31">
         <f>P5+1</f>
-        <v>45552</v>
+        <v>45601</v>
       </c>
       <c r="R5" s="31">
         <f t="shared" si="0"/>
-        <v>45553</v>
+        <v>45602</v>
       </c>
       <c r="S5" s="31">
         <f t="shared" si="0"/>
-        <v>45554</v>
+        <v>45603</v>
       </c>
       <c r="T5" s="31">
         <f t="shared" si="0"/>
-        <v>45555</v>
+        <v>45604</v>
       </c>
       <c r="U5" s="31">
         <f t="shared" si="0"/>
-        <v>45556</v>
+        <v>45605</v>
       </c>
       <c r="V5" s="32">
         <f t="shared" si="0"/>
-        <v>45557</v>
+        <v>45606</v>
       </c>
       <c r="W5" s="33">
         <f>V5+1</f>
-        <v>45558</v>
+        <v>45607</v>
       </c>
       <c r="X5" s="31">
         <f>W5+1</f>
-        <v>45559</v>
+        <v>45608</v>
       </c>
       <c r="Y5" s="31">
         <f t="shared" si="0"/>
-        <v>45560</v>
+        <v>45609</v>
       </c>
       <c r="Z5" s="31">
         <f t="shared" si="0"/>
-        <v>45561</v>
+        <v>45610</v>
       </c>
       <c r="AA5" s="31">
         <f t="shared" si="0"/>
-        <v>45562</v>
+        <v>45611</v>
       </c>
       <c r="AB5" s="31">
         <f t="shared" si="0"/>
-        <v>45563</v>
+        <v>45612</v>
       </c>
       <c r="AC5" s="32">
         <f t="shared" si="0"/>
-        <v>45564</v>
+        <v>45613</v>
       </c>
       <c r="AD5" s="33">
         <f>AC5+1</f>
-        <v>45565</v>
+        <v>45614</v>
       </c>
       <c r="AE5" s="31">
         <f>AD5+1</f>
-        <v>45566</v>
+        <v>45615</v>
       </c>
       <c r="AF5" s="31">
         <f t="shared" si="0"/>
-        <v>45567</v>
+        <v>45616</v>
       </c>
       <c r="AG5" s="31">
         <f t="shared" si="0"/>
-        <v>45568</v>
+        <v>45617</v>
       </c>
       <c r="AH5" s="31">
         <f t="shared" si="0"/>
-        <v>45569</v>
+        <v>45618</v>
       </c>
       <c r="AI5" s="31">
         <f t="shared" si="0"/>
-        <v>45570</v>
+        <v>45619</v>
       </c>
       <c r="AJ5" s="32">
         <f t="shared" si="0"/>
-        <v>45571</v>
+        <v>45620</v>
       </c>
       <c r="AK5" s="33">
         <f>AJ5+1</f>
-        <v>45572</v>
+        <v>45621</v>
       </c>
       <c r="AL5" s="31">
         <f>AK5+1</f>
-        <v>45573</v>
+        <v>45622</v>
       </c>
       <c r="AM5" s="31">
         <f t="shared" si="0"/>
-        <v>45574</v>
+        <v>45623</v>
       </c>
       <c r="AN5" s="31">
         <f t="shared" si="0"/>
-        <v>45575</v>
+        <v>45624</v>
       </c>
       <c r="AO5" s="31">
         <f t="shared" si="0"/>
-        <v>45576</v>
+        <v>45625</v>
       </c>
       <c r="AP5" s="31">
         <f t="shared" si="0"/>
-        <v>45577</v>
+        <v>45626</v>
       </c>
       <c r="AQ5" s="32">
         <f t="shared" si="0"/>
-        <v>45578</v>
+        <v>45627</v>
       </c>
       <c r="AR5" s="33">
         <f>AQ5+1</f>
-        <v>45579</v>
+        <v>45628</v>
       </c>
       <c r="AS5" s="31">
         <f>AR5+1</f>
-        <v>45580</v>
+        <v>45629</v>
       </c>
       <c r="AT5" s="31">
         <f t="shared" si="0"/>
-        <v>45581</v>
+        <v>45630</v>
       </c>
       <c r="AU5" s="31">
         <f t="shared" si="0"/>
-        <v>45582</v>
+        <v>45631</v>
       </c>
       <c r="AV5" s="31">
         <f t="shared" si="0"/>
-        <v>45583</v>
+        <v>45632</v>
       </c>
       <c r="AW5" s="31">
         <f t="shared" si="0"/>
-        <v>45584</v>
+        <v>45633</v>
       </c>
       <c r="AX5" s="32">
         <f t="shared" si="0"/>
-        <v>45585</v>
+        <v>45634</v>
       </c>
       <c r="AY5" s="33">
         <f>AX5+1</f>
-        <v>45586</v>
+        <v>45635</v>
       </c>
       <c r="AZ5" s="31">
         <f>AY5+1</f>
-        <v>45587</v>
+        <v>45636</v>
       </c>
       <c r="BA5" s="31">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45588</v>
+        <v>45637</v>
       </c>
       <c r="BB5" s="31">
         <f t="shared" si="1"/>
-        <v>45589</v>
+        <v>45638</v>
       </c>
       <c r="BC5" s="31">
         <f t="shared" si="1"/>
-        <v>45590</v>
+        <v>45639</v>
       </c>
       <c r="BD5" s="31">
         <f t="shared" si="1"/>
-        <v>45591</v>
+        <v>45640</v>
       </c>
       <c r="BE5" s="32">
         <f t="shared" si="1"/>
-        <v>45592</v>
+        <v>45641</v>
       </c>
       <c r="BF5" s="33">
         <f>BE5+1</f>
-        <v>45593</v>
+        <v>45642</v>
       </c>
       <c r="BG5" s="31">
         <f>BF5+1</f>
-        <v>45594</v>
+        <v>45643</v>
       </c>
       <c r="BH5" s="31">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>45595</v>
+        <v>45644</v>
       </c>
       <c r="BI5" s="31">
         <f t="shared" si="2"/>
-        <v>45596</v>
+        <v>45645</v>
       </c>
       <c r="BJ5" s="31">
         <f t="shared" si="2"/>
-        <v>45597</v>
+        <v>45646</v>
       </c>
       <c r="BK5" s="31">
         <f t="shared" si="2"/>
-        <v>45598</v>
+        <v>45647</v>
       </c>
       <c r="BL5" s="31">
         <f t="shared" si="2"/>
-        <v>45599</v>
+        <v>45648</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2649,11 +2662,11 @@
       <c r="D9" s="49">
         <v>1</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="113">
         <f>Project_Start</f>
         <v>45554</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="113">
         <f>E9+0</f>
         <v>45554</v>
       </c>
@@ -2662,79 +2675,79 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="51"/>
-      <c r="AY9" s="51"/>
-      <c r="AZ9" s="51"/>
-      <c r="BA9" s="51"/>
-      <c r="BB9" s="51"/>
-      <c r="BC9" s="51"/>
-      <c r="BD9" s="51"/>
-      <c r="BE9" s="51"/>
-      <c r="BF9" s="51"/>
-      <c r="BG9" s="51"/>
-      <c r="BH9" s="51"/>
-      <c r="BI9" s="51"/>
-      <c r="BJ9" s="51"/>
-      <c r="BK9" s="51"/>
-      <c r="BL9" s="51"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="50"/>
     </row>
     <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>1</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="115">
         <f>F9</f>
         <v>45554</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="115">
         <f>E10+0</f>
         <v>45554</v>
       </c>
@@ -2743,78 +2756,78 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
-      <c r="AZ10" s="51"/>
-      <c r="BA10" s="51"/>
-      <c r="BB10" s="51"/>
-      <c r="BC10" s="51"/>
-      <c r="BD10" s="51"/>
-      <c r="BE10" s="51"/>
-      <c r="BF10" s="51"/>
-      <c r="BG10" s="51"/>
-      <c r="BH10" s="51"/>
-      <c r="BI10" s="51"/>
-      <c r="BJ10" s="51"/>
-      <c r="BK10" s="51"/>
-      <c r="BL10" s="51"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="50"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
     </row>
     <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D11" s="107">
         <v>1</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="116">
         <v>45567</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="117">
         <v>45572</v>
       </c>
       <c r="G11" s="17"/>
@@ -2822,152 +2835,152 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="116"/>
-      <c r="AJ11" s="116"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="51"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="51"/>
-      <c r="AY11" s="51"/>
-      <c r="AZ11" s="51"/>
-      <c r="BA11" s="51"/>
-      <c r="BB11" s="51"/>
-      <c r="BC11" s="51"/>
-      <c r="BD11" s="51"/>
-      <c r="BE11" s="51"/>
-      <c r="BF11" s="51"/>
-      <c r="BG11" s="51"/>
-      <c r="BH11" s="51"/>
-      <c r="BI11" s="51"/>
-      <c r="BJ11" s="51"/>
-      <c r="BK11" s="51"/>
-      <c r="BL11" s="51"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="111"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
+      <c r="BJ11" s="50"/>
+      <c r="BK11" s="50"/>
+      <c r="BL11" s="50"/>
     </row>
     <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="107">
         <v>1</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="116">
         <v>45559</v>
       </c>
-      <c r="F12" s="112"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="17"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="113"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="50"/>
+      <c r="BK12" s="50"/>
+      <c r="BL12" s="50"/>
     </row>
     <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D13" s="107">
         <v>1</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="116">
         <v>45562</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="117">
         <v>45568</v>
       </c>
       <c r="G13" s="17"/>
@@ -2975,224 +2988,228 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="50"/>
+      <c r="BD13" s="50"/>
+      <c r="BE13" s="50"/>
+      <c r="BF13" s="50"/>
+      <c r="BG13" s="50"/>
+      <c r="BH13" s="50"/>
+      <c r="BI13" s="50"/>
+      <c r="BJ13" s="50"/>
+      <c r="BK13" s="50"/>
+      <c r="BL13" s="50"/>
     </row>
     <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="17"/>
       <c r="H14" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="51"/>
-      <c r="BJ14" s="51"/>
-      <c r="BK14" s="51"/>
-      <c r="BL14" s="51"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="50"/>
+      <c r="BD14" s="50"/>
+      <c r="BE14" s="50"/>
+      <c r="BF14" s="50"/>
+      <c r="BG14" s="50"/>
+      <c r="BH14" s="50"/>
+      <c r="BI14" s="50"/>
+      <c r="BJ14" s="50"/>
+      <c r="BK14" s="50"/>
+      <c r="BL14" s="50"/>
     </row>
     <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="62">
         <v>1</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="E15" s="114">
+        <v>45599</v>
+      </c>
+      <c r="F15" s="114">
+        <v>45608</v>
+      </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="5" t="str">
+      <c r="H15" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="51"/>
-      <c r="BJ15" s="51"/>
-      <c r="BK15" s="51"/>
-      <c r="BL15" s="51"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
+      <c r="BD15" s="50"/>
+      <c r="BE15" s="50"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
+      <c r="BJ15" s="50"/>
+      <c r="BK15" s="50"/>
+      <c r="BL15" s="50"/>
     </row>
     <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="62">
         <v>1</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="114">
         <v>45607</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="114">
         <v>45613</v>
       </c>
       <c r="G16" s="17"/>
@@ -3200,987 +3217,1039 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="51"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="51"/>
-      <c r="BL16" s="51"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="50"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="50"/>
+      <c r="BK16" s="50"/>
+      <c r="BL16" s="50"/>
     </row>
     <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="62">
         <v>1</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
+      <c r="E17" s="114">
+        <v>45605</v>
+      </c>
+      <c r="F17" s="114">
+        <v>45612</v>
+      </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="5" t="str">
+      <c r="H17" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="51"/>
-      <c r="BA17" s="51"/>
-      <c r="BB17" s="51"/>
-      <c r="BC17" s="51"/>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
-      <c r="BG17" s="51"/>
-      <c r="BH17" s="51"/>
-      <c r="BI17" s="51"/>
-      <c r="BJ17" s="51"/>
-      <c r="BK17" s="51"/>
-      <c r="BL17" s="51"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="50"/>
+      <c r="BK17" s="50"/>
+      <c r="BL17" s="50"/>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="62">
         <v>1</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="E18" s="114">
+        <v>45603</v>
+      </c>
+      <c r="F18" s="114">
+        <v>45617</v>
+      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="5" t="str">
+      <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="71"/>
-      <c r="BE18" s="71"/>
-      <c r="BF18" s="71"/>
-      <c r="BG18" s="71"/>
-      <c r="BH18" s="71"/>
-      <c r="BI18" s="71"/>
-      <c r="BJ18" s="71"/>
-      <c r="BK18" s="71"/>
-      <c r="BL18" s="71"/>
+        <v>15</v>
+      </c>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="68"/>
+      <c r="AT18" s="68"/>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="68"/>
+      <c r="BJ18" s="68"/>
+      <c r="BK18" s="68"/>
+      <c r="BL18" s="68"/>
     </row>
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="64">
+      <c r="C19" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="62">
         <v>1</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="E19" s="114">
+        <v>45613</v>
+      </c>
+      <c r="F19" s="114">
+        <v>45617</v>
+      </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="5" t="str">
+      <c r="H19" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="51"/>
-      <c r="AZ19" s="51"/>
-      <c r="BA19" s="51"/>
-      <c r="BB19" s="51"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
-      <c r="BG19" s="51"/>
-      <c r="BH19" s="51"/>
-      <c r="BI19" s="51"/>
-      <c r="BJ19" s="51"/>
-      <c r="BK19" s="51"/>
-      <c r="BL19" s="51"/>
+        <v>5</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="50"/>
+      <c r="BK19" s="50"/>
+      <c r="BL19" s="50"/>
     </row>
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="17"/>
       <c r="H20" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="51"/>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-      <c r="BG20" s="51"/>
-      <c r="BH20" s="51"/>
-      <c r="BI20" s="51"/>
-      <c r="BJ20" s="51"/>
-      <c r="BK20" s="51"/>
-      <c r="BL20" s="51"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="50"/>
+      <c r="AX20" s="50"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="50"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="50"/>
+      <c r="BK20" s="50"/>
+      <c r="BL20" s="50"/>
     </row>
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
+      <c r="B21" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="71">
+        <v>1</v>
+      </c>
+      <c r="E21" s="132">
+        <v>45625</v>
+      </c>
+      <c r="F21" s="132">
+        <v>45636</v>
+      </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="5" t="str">
+      <c r="H21" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="51"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="51"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="51"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="51"/>
-      <c r="AZ21" s="51"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="51"/>
-      <c r="BC21" s="51"/>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="51"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="51"/>
-      <c r="BH21" s="51"/>
-      <c r="BI21" s="51"/>
-      <c r="BJ21" s="51"/>
-      <c r="BK21" s="51"/>
-      <c r="BL21" s="51"/>
+        <v>12</v>
+      </c>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="50"/>
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="50"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="50"/>
+      <c r="BB21" s="50"/>
+      <c r="BC21" s="50"/>
+      <c r="BD21" s="50"/>
+      <c r="BE21" s="50"/>
+      <c r="BF21" s="50"/>
+      <c r="BG21" s="50"/>
+      <c r="BH21" s="50"/>
+      <c r="BI21" s="50"/>
+      <c r="BJ21" s="50"/>
+      <c r="BK21" s="50"/>
+      <c r="BL21" s="50"/>
     </row>
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
+      <c r="B22" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="71">
+        <v>1</v>
+      </c>
+      <c r="E22" s="132">
+        <v>45642</v>
+      </c>
+      <c r="F22" s="132">
+        <v>45646</v>
+      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="5" t="str">
+      <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="51"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="51"/>
-      <c r="BL22" s="51"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="50"/>
+      <c r="BE22" s="50"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="50"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="50"/>
+      <c r="BK22" s="50"/>
+      <c r="BL22" s="50"/>
     </row>
     <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="B23" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="71">
+        <v>1</v>
+      </c>
+      <c r="E23" s="132">
+        <v>45635</v>
+      </c>
+      <c r="F23" s="132">
+        <v>45646</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="5" t="str">
+      <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="51"/>
-      <c r="AN23" s="51"/>
-      <c r="AO23" s="51"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="51"/>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="51"/>
-      <c r="AU23" s="51"/>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
-      <c r="BB23" s="51"/>
-      <c r="BC23" s="51"/>
-      <c r="BD23" s="51"/>
-      <c r="BE23" s="51"/>
-      <c r="BF23" s="51"/>
-      <c r="BG23" s="51"/>
-      <c r="BH23" s="51"/>
-      <c r="BI23" s="51"/>
-      <c r="BJ23" s="51"/>
-      <c r="BK23" s="51"/>
-      <c r="BL23" s="51"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="50"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
+      <c r="BB23" s="50"/>
+      <c r="BC23" s="50"/>
+      <c r="BD23" s="50"/>
+      <c r="BE23" s="50"/>
+      <c r="BF23" s="50"/>
+      <c r="BG23" s="50"/>
+      <c r="BH23" s="50"/>
+      <c r="BI23" s="50"/>
+      <c r="BJ23" s="50"/>
+      <c r="BK23" s="50"/>
+      <c r="BL23" s="50"/>
     </row>
     <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
+      <c r="B24" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="71">
+        <v>1</v>
+      </c>
+      <c r="E24" s="132">
+        <v>45638</v>
+      </c>
+      <c r="F24" s="132">
+        <v>45643</v>
+      </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="5" t="str">
+      <c r="H24" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="81"/>
-      <c r="AH24" s="81"/>
-      <c r="AI24" s="81"/>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="81"/>
-      <c r="AL24" s="81"/>
-      <c r="AM24" s="81"/>
-      <c r="AN24" s="81"/>
-      <c r="AO24" s="81"/>
-      <c r="AP24" s="81"/>
-      <c r="AQ24" s="81"/>
-      <c r="AR24" s="81"/>
-      <c r="AS24" s="81"/>
-      <c r="AT24" s="81"/>
-      <c r="AU24" s="81"/>
-      <c r="AV24" s="81"/>
-      <c r="AW24" s="81"/>
-      <c r="AX24" s="81"/>
-      <c r="AY24" s="81"/>
-      <c r="AZ24" s="81"/>
-      <c r="BA24" s="81"/>
-      <c r="BB24" s="81"/>
-      <c r="BC24" s="81"/>
-      <c r="BD24" s="81"/>
-      <c r="BE24" s="81"/>
-      <c r="BF24" s="81"/>
-      <c r="BG24" s="81"/>
-      <c r="BH24" s="81"/>
-      <c r="BI24" s="81"/>
-      <c r="BJ24" s="81"/>
-      <c r="BK24" s="81"/>
-      <c r="BL24" s="81"/>
+        <v>6</v>
+      </c>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="78"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="78"/>
+      <c r="AO24" s="78"/>
+      <c r="AP24" s="78"/>
+      <c r="AQ24" s="78"/>
+      <c r="AR24" s="78"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="78"/>
+      <c r="AW24" s="78"/>
+      <c r="AX24" s="78"/>
+      <c r="AY24" s="78"/>
+      <c r="AZ24" s="78"/>
+      <c r="BA24" s="78"/>
+      <c r="BB24" s="78"/>
+      <c r="BC24" s="78"/>
+      <c r="BD24" s="78"/>
+      <c r="BE24" s="78"/>
+      <c r="BF24" s="78"/>
+      <c r="BG24" s="78"/>
+      <c r="BH24" s="78"/>
+      <c r="BI24" s="78"/>
+      <c r="BJ24" s="78"/>
+      <c r="BK24" s="78"/>
+      <c r="BL24" s="78"/>
     </row>
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="17"/>
       <c r="H25" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="51"/>
-      <c r="AN25" s="51"/>
-      <c r="AO25" s="51"/>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
-      <c r="AR25" s="51"/>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="51"/>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
-      <c r="BB25" s="51"/>
-      <c r="BC25" s="51"/>
-      <c r="BD25" s="51"/>
-      <c r="BE25" s="51"/>
-      <c r="BF25" s="51"/>
-      <c r="BG25" s="51"/>
-      <c r="BH25" s="51"/>
-      <c r="BI25" s="51"/>
-      <c r="BJ25" s="51"/>
-      <c r="BK25" s="51"/>
-      <c r="BL25" s="51"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="50"/>
+      <c r="BC25" s="50"/>
+      <c r="BD25" s="50"/>
+      <c r="BE25" s="50"/>
+      <c r="BF25" s="50"/>
+      <c r="BG25" s="50"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="50"/>
+      <c r="BJ25" s="50"/>
+      <c r="BK25" s="50"/>
+      <c r="BL25" s="50"/>
     </row>
     <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="17"/>
       <c r="H26" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="51"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="51"/>
-      <c r="BB26" s="51"/>
-      <c r="BC26" s="51"/>
-      <c r="BD26" s="51"/>
-      <c r="BE26" s="51"/>
-      <c r="BF26" s="51"/>
-      <c r="BG26" s="51"/>
-      <c r="BH26" s="51"/>
-      <c r="BI26" s="51"/>
-      <c r="BJ26" s="51"/>
-      <c r="BK26" s="51"/>
-      <c r="BL26" s="51"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="50"/>
+      <c r="AY26" s="50"/>
+      <c r="AZ26" s="50"/>
+      <c r="BA26" s="50"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="50"/>
+      <c r="BD26" s="50"/>
+      <c r="BE26" s="50"/>
+      <c r="BF26" s="50"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="50"/>
+      <c r="BI26" s="50"/>
+      <c r="BJ26" s="50"/>
+      <c r="BK26" s="50"/>
+      <c r="BL26" s="50"/>
     </row>
     <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="17"/>
       <c r="H27" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="51"/>
-      <c r="AN27" s="51"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="51"/>
-      <c r="AR27" s="51"/>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="51"/>
-      <c r="AV27" s="51"/>
-      <c r="AW27" s="51"/>
-      <c r="AX27" s="51"/>
-      <c r="AY27" s="51"/>
-      <c r="AZ27" s="51"/>
-      <c r="BA27" s="51"/>
-      <c r="BB27" s="51"/>
-      <c r="BC27" s="51"/>
-      <c r="BD27" s="51"/>
-      <c r="BE27" s="51"/>
-      <c r="BF27" s="51"/>
-      <c r="BG27" s="51"/>
-      <c r="BH27" s="51"/>
-      <c r="BI27" s="51"/>
-      <c r="BJ27" s="51"/>
-      <c r="BK27" s="51"/>
-      <c r="BL27" s="51"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="50"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="50"/>
+      <c r="AK27" s="50"/>
+      <c r="AL27" s="50"/>
+      <c r="AM27" s="50"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="50"/>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="50"/>
+      <c r="AU27" s="50"/>
+      <c r="AV27" s="50"/>
+      <c r="AW27" s="50"/>
+      <c r="AX27" s="50"/>
+      <c r="AY27" s="50"/>
+      <c r="AZ27" s="50"/>
+      <c r="BA27" s="50"/>
+      <c r="BB27" s="50"/>
+      <c r="BC27" s="50"/>
+      <c r="BD27" s="50"/>
+      <c r="BE27" s="50"/>
+      <c r="BF27" s="50"/>
+      <c r="BG27" s="50"/>
+      <c r="BH27" s="50"/>
+      <c r="BI27" s="50"/>
+      <c r="BJ27" s="50"/>
+      <c r="BK27" s="50"/>
+      <c r="BL27" s="50"/>
     </row>
     <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="17"/>
       <c r="H28" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="51"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="51"/>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="51"/>
-      <c r="AZ28" s="51"/>
-      <c r="BA28" s="51"/>
-      <c r="BB28" s="51"/>
-      <c r="BC28" s="51"/>
-      <c r="BD28" s="51"/>
-      <c r="BE28" s="51"/>
-      <c r="BF28" s="51"/>
-      <c r="BG28" s="51"/>
-      <c r="BH28" s="51"/>
-      <c r="BI28" s="51"/>
-      <c r="BJ28" s="51"/>
-      <c r="BK28" s="51"/>
-      <c r="BL28" s="51"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="50"/>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="50"/>
+      <c r="BA28" s="50"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="50"/>
+      <c r="BD28" s="50"/>
+      <c r="BE28" s="50"/>
+      <c r="BF28" s="50"/>
+      <c r="BG28" s="50"/>
+      <c r="BH28" s="50"/>
+      <c r="BI28" s="50"/>
+      <c r="BJ28" s="50"/>
+      <c r="BK28" s="50"/>
+      <c r="BL28" s="50"/>
     </row>
     <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="17"/>
       <c r="H29" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="51"/>
-      <c r="AV29" s="51"/>
-      <c r="AW29" s="51"/>
-      <c r="AX29" s="51"/>
-      <c r="AY29" s="51"/>
-      <c r="AZ29" s="51"/>
-      <c r="BA29" s="51"/>
-      <c r="BB29" s="51"/>
-      <c r="BC29" s="51"/>
-      <c r="BD29" s="51"/>
-      <c r="BE29" s="51"/>
-      <c r="BF29" s="51"/>
-      <c r="BG29" s="51"/>
-      <c r="BH29" s="51"/>
-      <c r="BI29" s="51"/>
-      <c r="BJ29" s="51"/>
-      <c r="BK29" s="51"/>
-      <c r="BL29" s="51"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="50"/>
+      <c r="AN29" s="50"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="50"/>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="50"/>
+      <c r="AV29" s="50"/>
+      <c r="AW29" s="50"/>
+      <c r="AX29" s="50"/>
+      <c r="AY29" s="50"/>
+      <c r="AZ29" s="50"/>
+      <c r="BA29" s="50"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="50"/>
+      <c r="BD29" s="50"/>
+      <c r="BE29" s="50"/>
+      <c r="BF29" s="50"/>
+      <c r="BG29" s="50"/>
+      <c r="BH29" s="50"/>
+      <c r="BI29" s="50"/>
+      <c r="BJ29" s="50"/>
+      <c r="BK29" s="50"/>
+      <c r="BL29" s="50"/>
     </row>
     <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="17"/>
       <c r="H30" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4245,89 +4314,89 @@
     </row>
     <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
       <c r="G31" s="17"/>
       <c r="H31" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="95"/>
-      <c r="AO31" s="95"/>
-      <c r="AP31" s="95"/>
-      <c r="AQ31" s="95"/>
-      <c r="AR31" s="95"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="95"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="95"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="95"/>
-      <c r="BA31" s="95"/>
-      <c r="BB31" s="95"/>
-      <c r="BC31" s="95"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="95"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="92"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="92"/>
+      <c r="AL31" s="92"/>
+      <c r="AM31" s="92"/>
+      <c r="AN31" s="92"/>
+      <c r="AO31" s="92"/>
+      <c r="AP31" s="92"/>
+      <c r="AQ31" s="92"/>
+      <c r="AR31" s="92"/>
+      <c r="AS31" s="92"/>
+      <c r="AT31" s="92"/>
+      <c r="AU31" s="92"/>
+      <c r="AV31" s="92"/>
+      <c r="AW31" s="92"/>
+      <c r="AX31" s="92"/>
+      <c r="AY31" s="92"/>
+      <c r="AZ31" s="92"/>
+      <c r="BA31" s="92"/>
+      <c r="BB31" s="92"/>
+      <c r="BC31" s="92"/>
+      <c r="BD31" s="92"/>
+      <c r="BE31" s="92"/>
+      <c r="BF31" s="92"/>
+      <c r="BG31" s="92"/>
+      <c r="BH31" s="92"/>
+      <c r="BI31" s="92"/>
+      <c r="BJ31" s="92"/>
+      <c r="BK31" s="92"/>
+      <c r="BL31" s="92"/>
     </row>
     <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="94"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
     </row>
     <row r="35" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="16"/>
@@ -4382,11 +4451,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL10">
-    <cfRule type="expression" dxfId="12" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="29">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="30" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="29">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL29">
@@ -4395,27 +4464,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:BL12">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:BL17">
-    <cfRule type="expression" dxfId="7" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="27">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="27">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL23">
-    <cfRule type="expression" dxfId="5" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="25">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="25">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL29">
@@ -4427,14 +4496,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:T15">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="22">
-      <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="13">
+  <dataValidations count="13">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -4495,103 +4564,103 @@
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="95" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="99"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="97" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="98" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="97" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" ht="205.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="99" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="97" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.15">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="98" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="100" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="97" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="98" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="100" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.45">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="97" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="98" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.15">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="98" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="104"/>
+      <c r="A17" s="101"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="104"/>
+      <c r="A18" s="101"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="104"/>
+      <c r="A19" s="101"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="104"/>
+      <c r="A20" s="101"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="104"/>
+      <c r="A21" s="101"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="104"/>
+      <c r="A22" s="101"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="104"/>
+      <c r="A23" s="101"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="104"/>
+      <c r="A24" s="101"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4606,26 +4675,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4937,7 +4986,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4946,19 +4995,27 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4979,7 +5036,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4987,6 +5044,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>